--- a/grade.xlsx
+++ b/grade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Agrupamento de Escolas Santa Iria de Azoia</t>
   </si>
@@ -31,60 +31,69 @@
     <t>Nome</t>
   </si>
   <si>
+    <t>DIAG</t>
+  </si>
+  <si>
+    <t>Teste 1</t>
+  </si>
+  <si>
+    <t>Teste 2</t>
+  </si>
+  <si>
+    <t>Dim. Pratica</t>
+  </si>
+  <si>
+    <t>Leit</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Escr</t>
+  </si>
+  <si>
+    <t>Capacidades e Conhecimentos</t>
+  </si>
+  <si>
+    <t>R/RESP</t>
+  </si>
+  <si>
+    <t>I/EM</t>
+  </si>
+  <si>
+    <t>CTAR</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>PONT</t>
+  </si>
+  <si>
+    <t>Atitudes e Valores</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Aluno/a</t>
-  </si>
-  <si>
-    <t>DIAG</t>
-  </si>
-  <si>
-    <t>Teste 1</t>
-  </si>
-  <si>
-    <t>Teste 2</t>
-  </si>
-  <si>
-    <t>Dim. Pratica</t>
-  </si>
-  <si>
-    <t>Leit</t>
-  </si>
-  <si>
-    <t>Oral</t>
-  </si>
-  <si>
-    <t>Escr</t>
-  </si>
-  <si>
-    <t>Capacidades e Conhecimentos</t>
-  </si>
-  <si>
-    <t>R/RESP</t>
-  </si>
-  <si>
-    <t>I/EM</t>
-  </si>
-  <si>
-    <t>CTAR</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>PONT</t>
-  </si>
-  <si>
-    <t>Atitudes e Valores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0%"/>
     <numFmt numFmtId="164" formatCode="0%"/>
+    <numFmt numFmtId="164" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +133,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,7 +175,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -175,13 +199,69 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -205,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,13 +295,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,22 +623,22 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -548,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -559,786 +657,1135 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="R9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
         <v>0.25</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>0.25</v>
       </c>
       <c r="F11" s="6">
         <f>SUM(C11:E11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>0.1</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="7">
         <v>0.05</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="7">
         <v>0.05</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="7">
         <v>0.05</v>
       </c>
       <c r="K11" s="6">
         <f>SUM(G11:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="7">
         <v>0.08</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="7">
         <v>0.05</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="7">
         <v>0.08</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="7">
         <v>0.02</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="7">
         <v>0.02</v>
       </c>
       <c r="Q11" s="6">
         <f>SUM(L11:P11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="8">
         <f>+F11+K11+Q11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="7">
+      <c r="S11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13">
+        <f>+(E11*E12)+(D11*D12)+(C11*C12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13">
+        <f>+(J11*J12)+(I11*I12)+(H11*H12)+(G11*G12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13">
+        <f>+(P11*P12)+(O11*O12)+(N11*N12)+(M11*M12)+(L11*L12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <f>+F12+K12+Q12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
+        <f>+(E11*E13)+(D11*D13)+(C11*C13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13">
+        <f>+(J11*J13)+(I11*I13)+(H11*H13)+(G11*G13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="13">
+        <f>+(P11*P13)+(O11*O13)+(N11*N13)+(M11*M13)+(L11*L13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <f>+F13+K13+Q13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="10">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13">
+        <f>+(E11*E14)+(D11*D14)+(C11*C14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13">
+        <f>+(J11*J14)+(I11*I14)+(H11*H14)+(G11*G14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="13">
+        <f>+(P11*P14)+(O11*O14)+(N11*N14)+(M11*M14)+(L11*L14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <f>+F14+K14+Q14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="10">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13">
+        <f>+(E11*E15)+(D11*D15)+(C11*C15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13">
+        <f>+(J11*J15)+(I11*I15)+(H11*H15)+(G11*G15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="13">
+        <f>+(P11*P15)+(O11*O15)+(N11*N15)+(M11*M15)+(L11*L15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <f>+F15+K15+Q15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="F12" s="9">
-        <f>+(E11*E12)+(D11*D12)+(C11*C12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <f>+(J11*J12)+(I11*I12)+(H11*H12)+(G11*G12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f>+(P11*P12)+(O11*O12)+(N11*N12)+(M11*M12)+(L11*L12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f>+F12+K12+Q12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="7">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9">
-        <f>+(E11*E13)+(D11*D13)+(C11*C13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <f>+(J11*J13)+(I11*I13)+(H11*H13)+(G11*G13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f>+(P11*P13)+(O11*O13)+(N11*N13)+(M11*M13)+(L11*L13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f>+F13+K13+Q13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="7">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9">
-        <f>+(E11*E14)+(D11*D14)+(C11*C14)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <f>+(J11*J14)+(I11*I14)+(H11*H14)+(G11*G14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f>+(P11*P14)+(O11*O14)+(N11*N14)+(M11*M14)+(L11*L14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f>+F14+K14+Q14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="7">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="9">
-        <f>+(E11*E15)+(D11*D15)+(C11*C15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <f>+(J11*J15)+(I11*I15)+(H11*H15)+(G11*G15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f>+(P11*P15)+(O11*O15)+(N11*N15)+(M11*M15)+(L11*L15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f>+F15+K15+Q15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="7">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="B16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13">
         <f>+(E11*E16)+(D11*D16)+(C11*C16)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="9">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13">
         <f>+(J11*J16)+(I11*I16)+(H11*H16)+(G11*G16)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13">
         <f>+(P11*P16)+(O11*O16)+(N11*N16)+(M11*M16)+(L11*L16)</f>
         <v>0</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="9">
         <f>+F16+K16+Q16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="7">
+      <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13">
         <f>+(E11*E17)+(D11*D17)+(C11*C17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="9">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13">
         <f>+(J11*J17)+(I11*I17)+(H11*H17)+(G11*G17)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13">
         <f>+(P11*P17)+(O11*O17)+(N11*N17)+(M11*M17)+(L11*L17)</f>
         <v>0</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="9">
         <f>+F17+K17+Q17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="7">
+      <c r="A18" s="10">
         <v>7</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
         <f>+(E11*E18)+(D11*D18)+(C11*C18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="9">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13">
         <f>+(J11*J18)+(I11*I18)+(H11*H18)+(G11*G18)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="13">
         <f>+(P11*P18)+(O11*O18)+(N11*N18)+(M11*M18)+(L11*L18)</f>
         <v>0</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="9">
         <f>+F18+K18+Q18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="7">
+      <c r="A19" s="10">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="B19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13">
         <f>+(E11*E19)+(D11*D19)+(C11*C19)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="9">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13">
         <f>+(J11*J19)+(I11*I19)+(H11*H19)+(G11*G19)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="13">
         <f>+(P11*P19)+(O11*O19)+(N11*N19)+(M11*M19)+(L11*L19)</f>
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="9">
         <f>+F19+K19+Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="7">
+      <c r="A20" s="10">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="B20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13">
         <f>+(E11*E20)+(D11*D20)+(C11*C20)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="9">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13">
         <f>+(J11*J20)+(I11*I20)+(H11*H20)+(G11*G20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="13">
         <f>+(P11*P20)+(O11*O20)+(N11*N20)+(M11*M20)+(L11*L20)</f>
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="9">
         <f>+F20+K20+Q20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="7">
+      <c r="A21" s="10">
         <v>10</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13">
         <f>+(E11*E21)+(D11*D21)+(C11*C21)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="9">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13">
         <f>+(J11*J21)+(I11*I21)+(H11*H21)+(G11*G21)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="13">
         <f>+(P11*P21)+(O11*O21)+(N11*N21)+(M11*M21)+(L11*L21)</f>
         <v>0</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="9">
         <f>+F21+K21+Q21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="7">
+      <c r="A22" s="10">
         <v>11</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13">
         <f>+(E11*E22)+(D11*D22)+(C11*C22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="9">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13">
         <f>+(J11*J22)+(I11*I22)+(H11*H22)+(G11*G22)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13">
         <f>+(P11*P22)+(O11*O22)+(N11*N22)+(M11*M22)+(L11*L22)</f>
         <v>0</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="9">
         <f>+F22+K22+Q22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="7">
+      <c r="A23" s="10">
         <v>12</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="B23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13">
         <f>+(E11*E23)+(D11*D23)+(C11*C23)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="9">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13">
         <f>+(J11*J23)+(I11*I23)+(H11*H23)+(G11*G23)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="13">
         <f>+(P11*P23)+(O11*O23)+(N11*N23)+(M11*M23)+(L11*L23)</f>
         <v>0</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="9">
         <f>+F23+K23+Q23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="7">
+      <c r="A24" s="10">
         <v>13</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="B24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13">
         <f>+(E11*E24)+(D11*D24)+(C11*C24)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="9">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13">
         <f>+(J11*J24)+(I11*I24)+(H11*H24)+(G11*G24)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13">
         <f>+(P11*P24)+(O11*O24)+(N11*N24)+(M11*M24)+(L11*L24)</f>
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="9">
         <f>+F24+K24+Q24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="7">
+      <c r="A25" s="10">
         <v>14</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13">
         <f>+(E11*E25)+(D11*D25)+(C11*C25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="9">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13">
         <f>+(J11*J25)+(I11*I25)+(H11*H25)+(G11*G25)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13">
         <f>+(P11*P25)+(O11*O25)+(N11*N25)+(M11*M25)+(L11*L25)</f>
         <v>0</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="9">
         <f>+F25+K25+Q25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="7">
+      <c r="A26" s="10">
         <v>15</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="B26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13">
         <f>+(E11*E26)+(D11*D26)+(C11*C26)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="9">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13">
         <f>+(J11*J26)+(I11*I26)+(H11*H26)+(G11*G26)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="13">
         <f>+(P11*P26)+(O11*O26)+(N11*N26)+(M11*M26)+(L11*L26)</f>
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="9">
         <f>+F26+K26+Q26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="7">
+      <c r="A27" s="10">
         <v>16</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="B27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13">
         <f>+(E11*E27)+(D11*D27)+(C11*C27)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="9">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13">
         <f>+(J11*J27)+(I11*I27)+(H11*H27)+(G11*G27)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="13">
         <f>+(P11*P27)+(O11*O27)+(N11*N27)+(M11*M27)+(L11*L27)</f>
         <v>0</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="9">
         <f>+F27+K27+Q27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="7">
+      <c r="A28" s="10">
         <v>17</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="B28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13">
         <f>+(E11*E28)+(D11*D28)+(C11*C28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="9">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13">
         <f>+(J11*J28)+(I11*I28)+(H11*H28)+(G11*G28)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="13">
         <f>+(P11*P28)+(O11*O28)+(N11*N28)+(M11*M28)+(L11*L28)</f>
         <v>0</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="9">
         <f>+F28+K28+Q28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="7">
+      <c r="A29" s="10">
         <v>18</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="B29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13">
         <f>+(E11*E29)+(D11*D29)+(C11*C29)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="9">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13">
         <f>+(J11*J29)+(I11*I29)+(H11*H29)+(G11*G29)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="13">
         <f>+(P11*P29)+(O11*O29)+(N11*N29)+(M11*M29)+(L11*L29)</f>
         <v>0</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="9">
         <f>+F29+K29+Q29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="7">
+      <c r="A30" s="10">
         <v>19</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="B30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13">
         <f>+(E11*E30)+(D11*D30)+(C11*C30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="9">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13">
         <f>+(J11*J30)+(I11*I30)+(H11*H30)+(G11*G30)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="13">
         <f>+(P11*P30)+(O11*O30)+(N11*N30)+(M11*M30)+(L11*L30)</f>
         <v>0</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="9">
         <f>+F30+K30+Q30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="7">
+      <c r="A31" s="10">
         <v>20</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="B31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13">
         <f>+(E11*E31)+(D11*D31)+(C11*C31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="9">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13">
         <f>+(J11*J31)+(I11*I31)+(H11*H31)+(G11*G31)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="13">
         <f>+(P11*P31)+(O11*O31)+(N11*N31)+(M11*M31)+(L11*L31)</f>
         <v>0</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="9">
         <f>+F31+K31+Q31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="7">
-        <v>21</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="A32" s="10">
+        <v>21</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13">
         <f>+(E11*E32)+(D11*D32)+(C11*C32)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="9">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13">
         <f>+(J11*J32)+(I11*I32)+(H11*H32)+(G11*G32)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="13">
         <f>+(P11*P32)+(O11*O32)+(N11*N32)+(M11*M32)+(L11*L32)</f>
         <v>0</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="9">
         <f>+F32+K32+Q32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="7">
+      <c r="A33" s="10">
         <v>22</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="B33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13">
         <f>+(E11*E33)+(D11*D33)+(C11*C33)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="9">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13">
         <f>+(J11*J33)+(I11*I33)+(H11*H33)+(G11*G33)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="13">
         <f>+(P11*P33)+(O11*O33)+(N11*N33)+(M11*M33)+(L11*L33)</f>
         <v>0</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="9">
         <f>+F33+K33+Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="7">
+      <c r="A34" s="10">
         <v>23</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="9">
+      <c r="B34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13">
         <f>+(E11*E34)+(D11*D34)+(C11*C34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="9">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13">
         <f>+(J11*J34)+(I11*I34)+(H11*H34)+(G11*G34)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="13">
         <f>+(P11*P34)+(O11*O34)+(N11*N34)+(M11*M34)+(L11*L34)</f>
         <v>0</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="9">
         <f>+F34+K34+Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="7">
+      <c r="A35" s="10">
         <v>24</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="B35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13">
         <f>+(E11*E35)+(D11*D35)+(C11*C35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="9">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13">
         <f>+(J11*J35)+(I11*I35)+(H11*H35)+(G11*G35)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="13">
         <f>+(P11*P35)+(O11*O35)+(N11*N35)+(M11*M35)+(L11*L35)</f>
         <v>0</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="9">
         <f>+F35+K35+Q35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="7">
+      <c r="A36" s="10">
         <v>25</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="B36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13">
         <f>+(E11*E36)+(D11*D36)+(C11*C36)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="9">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13">
         <f>+(J11*J36)+(I11*I36)+(H11*H36)+(G11*G36)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="13">
         <f>+(P11*P36)+(O11*O36)+(N11*N36)+(M11*M36)+(L11*L36)</f>
         <v>0</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="9">
         <f>+F36+K36+Q36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="7">
+      <c r="A37" s="10">
         <v>26</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="B37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13">
         <f>+(E11*E37)+(D11*D37)+(C11*C37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="9">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13">
         <f>+(J11*J37)+(I11*I37)+(H11*H37)+(G11*G37)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="13">
         <f>+(P11*P37)+(O11*O37)+(N11*N37)+(M11*M37)+(L11*L37)</f>
         <v>0</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="9">
         <f>+F37+K37+Q37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="7">
+      <c r="A38" s="10">
         <v>27</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="B38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13">
         <f>+(E11*E38)+(D11*D38)+(C11*C38)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="9">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13">
         <f>+(J11*J38)+(I11*I38)+(H11*H38)+(G11*G38)</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="13">
         <f>+(P11*P38)+(O11*O38)+(N11*N38)+(M11*M38)+(L11*L38)</f>
         <v>0</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="9">
         <f>+F38+K38+Q38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="7">
+      <c r="A39" s="10">
         <v>28</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="9">
+      <c r="B39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13">
         <f>+(E11*E39)+(D11*D39)+(C11*C39)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="9">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13">
         <f>+(J11*J39)+(I11*I39)+(H11*H39)+(G11*G39)</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="13">
         <f>+(P11*P39)+(O11*O39)+(N11*N39)+(M11*M39)+(L11*L39)</f>
         <v>0</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="9">
         <f>+F39+K39+Q39</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
   <si>
     <t>Mínimo</t>
   </si>
@@ -101,6 +101,60 @@
   </si>
   <si>
     <t>Turma: 6ºB</t>
+  </si>
+  <si>
+    <t>Aluno/a1</t>
+  </si>
+  <si>
+    <t>Aluno/a2</t>
+  </si>
+  <si>
+    <t>Aluno/a3</t>
+  </si>
+  <si>
+    <t>Aluno/a4</t>
+  </si>
+  <si>
+    <t>Aluno/a5</t>
+  </si>
+  <si>
+    <t>Aluno/a6</t>
+  </si>
+  <si>
+    <t>Aluno/a7</t>
+  </si>
+  <si>
+    <t>Aluno/a8</t>
+  </si>
+  <si>
+    <t>Aluno/a9</t>
+  </si>
+  <si>
+    <t>Aluno/a10</t>
+  </si>
+  <si>
+    <t>Aluno/a11</t>
+  </si>
+  <si>
+    <t>Aluno/a12</t>
+  </si>
+  <si>
+    <t>Aluno/a13</t>
+  </si>
+  <si>
+    <t>Aluno/a14</t>
+  </si>
+  <si>
+    <t>Aluno/a15</t>
+  </si>
+  <si>
+    <t>Aluno/a16</t>
+  </si>
+  <si>
+    <t>Aluno/a17</t>
+  </si>
+  <si>
+    <t>Aluno/a18</t>
   </si>
   <si>
     <t>Aluno/a</t>
@@ -746,13 +800,14 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -942,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -1117,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1157,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1197,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1237,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1277,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1317,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1357,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -1397,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1437,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1477,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1517,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1557,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1597,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1637,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1677,7 +1732,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1717,7 +1772,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1757,7 +1812,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1797,7 +1852,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1837,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1877,7 +1932,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1917,7 +1972,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1957,7 +2012,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -1997,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -2037,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2077,7 +2132,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -2117,7 +2172,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -2157,7 +2212,7 @@
         <v>28</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -2189,86 +2244,6 @@
       </c>
       <c r="S39" s="13">
         <f>IF(R39=0,"",LOOKUP(R39,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="9">
-        <v>29</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15">
-        <f>+(E11*E40)+(D11*D40)+(C11*C40)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15">
-        <f>+(J11*J40)+(I11*I40)+(H11*H40)+(G11*G40)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15">
-        <f>+(P11*P40)+(O11*O40)+(N11*N40)+(M11*M40)+(L11*L40)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="16">
-        <f>+F40+K40+Q40</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="13">
-        <f>IF(R40=0,"",LOOKUP(R40,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="9">
-        <v>30</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15">
-        <f>+(E11*E41)+(D11*D41)+(C11*C41)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15">
-        <f>+(J11*J41)+(I11*I41)+(H11*H41)+(G11*G41)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15">
-        <f>+(P11*P41)+(O11*O41)+(N11*N41)+(M11*M41)+(L11*L41)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="16">
-        <f>+F41+K41+Q41</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="13">
-        <f>IF(R41=0,"",LOOKUP(R41,Notas!B3:B7,Notas!C3:C7))</f>
         <v>0</v>
       </c>
     </row>
@@ -2290,7 +2265,1808 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:V39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="4"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="8">
+        <f>SUM(C11:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="J11" s="8">
+        <f>SUM(F11:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="P11" s="8">
+        <f>SUM(K11:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <f>+E11+J11+P11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15">
+        <f>+(D11*D12)+(C11*C12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15">
+        <f>+(I11*I12)+(H11*H12)+(G11*G12)+(F11*F12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15">
+        <f>+(O11*O12)+(N11*N12)+(M11*M12)+(L11*L12)+(K11*K12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="21">
+        <f>+E12+J12+P12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <f>'Avaliação 1.º Período'!R12</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <f>Q12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
+        <f>(+T12+S12)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="20">
+        <f>IF(U12=0,"",LOOKUP(U12,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15">
+        <f>+(D11*D13)+(C11*C13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15">
+        <f>+(I11*I13)+(H11*H13)+(G11*G13)+(F11*F13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15">
+        <f>+(O11*O13)+(N11*N13)+(M11*M13)+(L11*L13)+(K11*K13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="21">
+        <f>+E13+J13+P13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <f>'Avaliação 1.º Período'!R13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <f>Q13</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <f>(+T13+S13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="20">
+        <f>IF(U13=0,"",LOOKUP(U13,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="9">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15">
+        <f>+(D11*D14)+(C11*C14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15">
+        <f>+(I11*I14)+(H11*H14)+(G11*G14)+(F11*F14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15">
+        <f>+(O11*O14)+(N11*N14)+(M11*M14)+(L11*L14)+(K11*K14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>+E14+J14+P14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <f>'Avaliação 1.º Período'!R14</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
+        <f>Q14</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <f>(+T14+S14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="20">
+        <f>IF(U14=0,"",LOOKUP(U14,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="9">
+        <v>4</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15">
+        <f>+(D11*D15)+(C11*C15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15">
+        <f>+(I11*I15)+(H11*H15)+(G11*G15)+(F11*F15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15">
+        <f>+(O11*O15)+(N11*N15)+(M11*M15)+(L11*L15)+(K11*K15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="21">
+        <f>+E15+J15+P15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="20">
+        <f>'Avaliação 1.º Período'!R15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="20">
+        <f>Q15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="20">
+        <f>(+T15+S15)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="20">
+        <f>IF(U15=0,"",LOOKUP(U15,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="9">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
+        <f>+(D11*D16)+(C11*C16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15">
+        <f>+(I11*I16)+(H11*H16)+(G11*G16)+(F11*F16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15">
+        <f>+(O11*O16)+(N11*N16)+(M11*M16)+(L11*L16)+(K11*K16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21">
+        <f>+E16+J16+P16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <f>'Avaliação 1.º Período'!R16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="20">
+        <f>Q16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="20">
+        <f>(+T16+S16)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="20">
+        <f>IF(U16=0,"",LOOKUP(U16,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
+        <f>+(D11*D17)+(C11*C17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15">
+        <f>+(I11*I17)+(H11*H17)+(G11*G17)+(F11*F17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15">
+        <f>+(O11*O17)+(N11*N17)+(M11*M17)+(L11*L17)+(K11*K17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
+        <f>+E17+J17+P17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="20">
+        <f>'Avaliação 1.º Período'!R17</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="20">
+        <f>Q17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="20">
+        <f>(+T17+S17)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="20">
+        <f>IF(U17=0,"",LOOKUP(U17,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="9">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15">
+        <f>+(D11*D18)+(C11*C18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15">
+        <f>+(I11*I18)+(H11*H18)+(G11*G18)+(F11*F18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15">
+        <f>+(O11*O18)+(N11*N18)+(M11*M18)+(L11*L18)+(K11*K18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="21">
+        <f>+E18+J18+P18</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <f>'Avaliação 1.º Período'!R18</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
+        <f>Q18</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="20">
+        <f>(+T18+S18)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="20">
+        <f>IF(U18=0,"",LOOKUP(U18,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="9">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15">
+        <f>+(D11*D19)+(C11*C19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15">
+        <f>+(I11*I19)+(H11*H19)+(G11*G19)+(F11*F19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15">
+        <f>+(O11*O19)+(N11*N19)+(M11*M19)+(L11*L19)+(K11*K19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="21">
+        <f>+E19+J19+P19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
+        <f>'Avaliação 1.º Período'!R19</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="20">
+        <f>Q19</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="20">
+        <f>(+T19+S19)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="20">
+        <f>IF(U19=0,"",LOOKUP(U19,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="9">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15">
+        <f>+(D11*D20)+(C11*C20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15">
+        <f>+(I11*I20)+(H11*H20)+(G11*G20)+(F11*F20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15">
+        <f>+(O11*O20)+(N11*N20)+(M11*M20)+(L11*L20)+(K11*K20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21">
+        <f>+E20+J20+P20</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <f>'Avaliação 1.º Período'!R20</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="20">
+        <f>Q20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="20">
+        <f>(+T20+S20)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="20">
+        <f>IF(U20=0,"",LOOKUP(U20,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="9">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15">
+        <f>+(D11*D21)+(C11*C21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15">
+        <f>+(I11*I21)+(H11*H21)+(G11*G21)+(F11*F21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15">
+        <f>+(O11*O21)+(N11*N21)+(M11*M21)+(L11*L21)+(K11*K21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <f>+E21+J21+P21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <f>'Avaliação 1.º Período'!R21</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="20">
+        <f>Q21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="20">
+        <f>(+T21+S21)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="20">
+        <f>IF(U21=0,"",LOOKUP(U21,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="9">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15">
+        <f>+(D11*D22)+(C11*C22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15">
+        <f>+(I11*I22)+(H11*H22)+(G11*G22)+(F11*F22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15">
+        <f>+(O11*O22)+(N11*N22)+(M11*M22)+(L11*L22)+(K11*K22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21">
+        <f>+E22+J22+P22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
+        <f>'Avaliação 1.º Período'!R22</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="20">
+        <f>Q22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="20">
+        <f>(+T22+S22)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="20">
+        <f>IF(U22=0,"",LOOKUP(U22,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="9">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15">
+        <f>+(D11*D23)+(C11*C23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15">
+        <f>+(I11*I23)+(H11*H23)+(G11*G23)+(F11*F23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15">
+        <f>+(O11*O23)+(N11*N23)+(M11*M23)+(L11*L23)+(K11*K23)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <f>+E23+J23+P23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
+        <f>'Avaliação 1.º Período'!R23</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="20">
+        <f>Q23</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="20">
+        <f>(+T23+S23)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="20">
+        <f>IF(U23=0,"",LOOKUP(U23,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="9">
+        <v>13</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15">
+        <f>+(D11*D24)+(C11*C24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15">
+        <f>+(I11*I24)+(H11*H24)+(G11*G24)+(F11*F24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15">
+        <f>+(O11*O24)+(N11*N24)+(M11*M24)+(L11*L24)+(K11*K24)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="21">
+        <f>+E24+J24+P24</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <f>'Avaliação 1.º Período'!R24</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="20">
+        <f>Q24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="20">
+        <f>(+T24+S24)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="20">
+        <f>IF(U24=0,"",LOOKUP(U24,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="9">
+        <v>14</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15">
+        <f>+(D11*D25)+(C11*C25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15">
+        <f>+(I11*I25)+(H11*H25)+(G11*G25)+(F11*F25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15">
+        <f>+(O11*O25)+(N11*N25)+(M11*M25)+(L11*L25)+(K11*K25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21">
+        <f>+E25+J25+P25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
+        <f>'Avaliação 1.º Período'!R25</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="20">
+        <f>Q25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="20">
+        <f>(+T25+S25)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="20">
+        <f>IF(U25=0,"",LOOKUP(U25,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="9">
+        <v>15</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15">
+        <f>+(D11*D26)+(C11*C26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15">
+        <f>+(I11*I26)+(H11*H26)+(G11*G26)+(F11*F26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15">
+        <f>+(O11*O26)+(N11*N26)+(M11*M26)+(L11*L26)+(K11*K26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="21">
+        <f>+E26+J26+P26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <f>'Avaliação 1.º Período'!R26</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="20">
+        <f>Q26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="20">
+        <f>(+T26+S26)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="20">
+        <f>IF(U26=0,"",LOOKUP(U26,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="9">
+        <v>16</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15">
+        <f>+(D11*D27)+(C11*C27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15">
+        <f>+(I11*I27)+(H11*H27)+(G11*G27)+(F11*F27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15">
+        <f>+(O11*O27)+(N11*N27)+(M11*M27)+(L11*L27)+(K11*K27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21">
+        <f>+E27+J27+P27</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
+        <f>'Avaliação 1.º Período'!R27</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="20">
+        <f>Q27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="20">
+        <f>(+T27+S27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="20">
+        <f>IF(U27=0,"",LOOKUP(U27,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="9">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15">
+        <f>+(D11*D28)+(C11*C28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15">
+        <f>+(I11*I28)+(H11*H28)+(G11*G28)+(F11*F28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="15">
+        <f>+(O11*O28)+(N11*N28)+(M11*M28)+(L11*L28)+(K11*K28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21">
+        <f>+E28+J28+P28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
+        <f>'Avaliação 1.º Período'!R28</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="20">
+        <f>Q28</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="20">
+        <f>(+T28+S28)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="20">
+        <f>IF(U28=0,"",LOOKUP(U28,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="9">
+        <v>18</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15">
+        <f>+(D11*D29)+(C11*C29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15">
+        <f>+(I11*I29)+(H11*H29)+(G11*G29)+(F11*F29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="15">
+        <f>+(O11*O29)+(N11*N29)+(M11*M29)+(L11*L29)+(K11*K29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21">
+        <f>+E29+J29+P29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="20">
+        <f>'Avaliação 1.º Período'!R29</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="20">
+        <f>Q29</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="20">
+        <f>(+T29+S29)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="20">
+        <f>IF(U29=0,"",LOOKUP(U29,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="9">
+        <v>19</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15">
+        <f>+(D11*D30)+(C11*C30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15">
+        <f>+(I11*I30)+(H11*H30)+(G11*G30)+(F11*F30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="15">
+        <f>+(O11*O30)+(N11*N30)+(M11*M30)+(L11*L30)+(K11*K30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="21">
+        <f>+E30+J30+P30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="20">
+        <f>'Avaliação 1.º Período'!R30</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="20">
+        <f>Q30</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="20">
+        <f>(+T30+S30)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="20">
+        <f>IF(U30=0,"",LOOKUP(U30,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="9">
+        <v>20</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15">
+        <f>+(D11*D31)+(C11*C31)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15">
+        <f>+(I11*I31)+(H11*H31)+(G11*G31)+(F11*F31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15">
+        <f>+(O11*O31)+(N11*N31)+(M11*M31)+(L11*L31)+(K11*K31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21">
+        <f>+E31+J31+P31</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="20">
+        <f>'Avaliação 1.º Período'!R31</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="20">
+        <f>Q31</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="20">
+        <f>(+T31+S31)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="20">
+        <f>IF(U31=0,"",LOOKUP(U31,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="9">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15">
+        <f>+(D11*D32)+(C11*C32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15">
+        <f>+(I11*I32)+(H11*H32)+(G11*G32)+(F11*F32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="15">
+        <f>+(O11*O32)+(N11*N32)+(M11*M32)+(L11*L32)+(K11*K32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="21">
+        <f>+E32+J32+P32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="20">
+        <f>'Avaliação 1.º Período'!R32</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="20">
+        <f>Q32</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="20">
+        <f>(+T32+S32)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="20">
+        <f>IF(U32=0,"",LOOKUP(U32,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="9">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15">
+        <f>+(D11*D33)+(C11*C33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15">
+        <f>+(I11*I33)+(H11*H33)+(G11*G33)+(F11*F33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15">
+        <f>+(O11*O33)+(N11*N33)+(M11*M33)+(L11*L33)+(K11*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="21">
+        <f>+E33+J33+P33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
+        <f>'Avaliação 1.º Período'!R33</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="20">
+        <f>Q33</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="20">
+        <f>(+T33+S33)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="20">
+        <f>IF(U33=0,"",LOOKUP(U33,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="9">
+        <v>23</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15">
+        <f>+(D11*D34)+(C11*C34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15">
+        <f>+(I11*I34)+(H11*H34)+(G11*G34)+(F11*F34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15">
+        <f>+(O11*O34)+(N11*N34)+(M11*M34)+(L11*L34)+(K11*K34)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="21">
+        <f>+E34+J34+P34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="20">
+        <f>'Avaliação 1.º Período'!R34</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="20">
+        <f>Q34</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="20">
+        <f>(+T34+S34)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="20">
+        <f>IF(U34=0,"",LOOKUP(U34,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="9">
+        <v>24</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15">
+        <f>+(D11*D35)+(C11*C35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15">
+        <f>+(I11*I35)+(H11*H35)+(G11*G35)+(F11*F35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15">
+        <f>+(O11*O35)+(N11*N35)+(M11*M35)+(L11*L35)+(K11*K35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="21">
+        <f>+E35+J35+P35</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <f>'Avaliação 1.º Período'!R35</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="20">
+        <f>Q35</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="20">
+        <f>(+T35+S35)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="20">
+        <f>IF(U35=0,"",LOOKUP(U35,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="9">
+        <v>25</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15">
+        <f>+(D11*D36)+(C11*C36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15">
+        <f>+(I11*I36)+(H11*H36)+(G11*G36)+(F11*F36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="15">
+        <f>+(O11*O36)+(N11*N36)+(M11*M36)+(L11*L36)+(K11*K36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21">
+        <f>+E36+J36+P36</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f>'Avaliação 1.º Período'!R36</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="20">
+        <f>Q36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="20">
+        <f>(+T36+S36)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="20">
+        <f>IF(U36=0,"",LOOKUP(U36,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="9">
+        <v>26</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15">
+        <f>+(D11*D37)+(C11*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15">
+        <f>+(I11*I37)+(H11*H37)+(G11*G37)+(F11*F37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="15">
+        <f>+(O11*O37)+(N11*N37)+(M11*M37)+(L11*L37)+(K11*K37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21">
+        <f>+E37+J37+P37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="20">
+        <f>'Avaliação 1.º Período'!R37</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="20">
+        <f>Q37</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="20">
+        <f>(+T37+S37)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="20">
+        <f>IF(U37=0,"",LOOKUP(U37,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="9">
+        <v>27</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15">
+        <f>+(D11*D38)+(C11*C38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15">
+        <f>+(I11*I38)+(H11*H38)+(G11*G38)+(F11*F38)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15">
+        <f>+(O11*O38)+(N11*N38)+(M11*M38)+(L11*L38)+(K11*K38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
+        <f>+E38+J38+P38</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="20">
+        <f>'Avaliação 1.º Período'!R38</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="20">
+        <f>Q38</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="20">
+        <f>(+T38+S38)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="20">
+        <f>IF(U38=0,"",LOOKUP(U38,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="9">
+        <v>28</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15">
+        <f>+(D11*D39)+(C11*C39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15">
+        <f>+(I11*I39)+(H11*H39)+(G11*G39)+(F11*F39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15">
+        <f>+(O11*O39)+(N11*N39)+(M11*M39)+(L11*L39)+(K11*K39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="21">
+        <f>+E39+J39+P39</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="20">
+        <f>'Avaliação 1.º Período'!R39</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="20">
+        <f>Q39</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="20">
+        <f>(+T39+S39)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="20">
+        <f>IF(U39=0,"",LOOKUP(U39,Notas!B3:B7,Notas!C3:C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A3:V4"/>
+    <mergeCell ref="A5:V6"/>
+    <mergeCell ref="A7:V8"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2405,7 +4181,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2512,7 +4288,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -2524,23 +4300,25 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="S9" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="T9" s="17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="V9" s="17" t="s">
         <v>23</v>
@@ -2551,45 +4329,43 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="4"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="4"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
@@ -2599,20 +4375,20 @@
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D11" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="8">
-        <f>SUM(C11:E11)</f>
-        <v>0</v>
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="8">
+        <f>SUM(C11:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.1</v>
       </c>
       <c r="G11" s="11">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H11" s="11">
         <v>0.05</v>
@@ -2620,36 +4396,34 @@
       <c r="I11" s="11">
         <v>0.05</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
+        <f>SUM(F11:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="L11" s="11">
         <v>0.05</v>
       </c>
-      <c r="K11" s="8">
-        <f>SUM(G11:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <v>0.08</v>
       </c>
-      <c r="M11" s="11">
-        <v>0.05</v>
-      </c>
       <c r="N11" s="11">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="O11" s="11">
         <v>0.02</v>
       </c>
-      <c r="P11" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="Q11" s="8">
-        <f>SUM(L11:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="18">
-        <f>+F11+K11+Q11</f>
-        <v>0</v>
-      </c>
+      <c r="P11" s="8">
+        <f>SUM(K11:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <f>+E11+J11+P11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
@@ -2666,42 +4440,45 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15">
-        <f>+(E11*E12)+(D11*D12)+(C11*C12)</f>
-        <v>0</v>
-      </c>
+      <c r="E12" s="15">
+        <f>+(D11*D12)+(C11*C12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15">
-        <f>+(J11*J12)+(I11*I12)+(H11*H12)+(G11*G12)</f>
-        <v>0</v>
-      </c>
+      <c r="J12" s="15">
+        <f>+(I11*I12)+(H11*H12)+(G11*G12)+(F11*F12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15">
-        <f>+(P11*P12)+(O11*O12)+(N11*N12)+(M11*M12)+(L11*L12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="21">
-        <f>+F12+K12+Q12</f>
+      <c r="P12" s="15">
+        <f>+(O11*O12)+(N11*N12)+(M11*M12)+(L11*L12)+(K11*K12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="21">
+        <f>+E12+J12+P12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <f>'Avaliação 1.º Período'!R12</f>
         <v>0</v>
       </c>
       <c r="T12" s="20">
-        <f>'Avaliação 1.º Período'!R12</f>
+        <f>'Avaliação 2.º Período'!Q12</f>
         <v>0</v>
       </c>
       <c r="U12" s="20">
-        <f>R12</f>
+        <f>Q12</f>
         <v>0</v>
       </c>
       <c r="V12" s="20">
-        <f>(+U12+T12)/2</f>
+        <f>(+U12+T12+S12)/3</f>
         <v>0</v>
       </c>
       <c r="W12" s="20">
@@ -2714,46 +4491,49 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15">
-        <f>+(E11*E13)+(D11*D13)+(C11*C13)</f>
-        <v>0</v>
-      </c>
+      <c r="E13" s="15">
+        <f>+(D11*D13)+(C11*C13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15">
-        <f>+(J11*J13)+(I11*I13)+(H11*H13)+(G11*G13)</f>
-        <v>0</v>
-      </c>
+      <c r="J13" s="15">
+        <f>+(I11*I13)+(H11*H13)+(G11*G13)+(F11*F13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15">
-        <f>+(P11*P13)+(O11*O13)+(N11*N13)+(M11*M13)+(L11*L13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <f>+F13+K13+Q13</f>
+      <c r="P13" s="15">
+        <f>+(O11*O13)+(N11*N13)+(M11*M13)+(L11*L13)+(K11*K13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="21">
+        <f>+E13+J13+P13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <f>'Avaliação 1.º Período'!R13</f>
         <v>0</v>
       </c>
       <c r="T13" s="20">
-        <f>'Avaliação 1.º Período'!R13</f>
+        <f>'Avaliação 2.º Período'!Q13</f>
         <v>0</v>
       </c>
       <c r="U13" s="20">
-        <f>R13</f>
+        <f>Q13</f>
         <v>0</v>
       </c>
       <c r="V13" s="20">
-        <f>(+U13+T13)/2</f>
+        <f>(+U13+T13+S13)/3</f>
         <v>0</v>
       </c>
       <c r="W13" s="20">
@@ -2766,46 +4546,49 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15">
-        <f>+(E11*E14)+(D11*D14)+(C11*C14)</f>
-        <v>0</v>
-      </c>
+      <c r="E14" s="15">
+        <f>+(D11*D14)+(C11*C14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15">
-        <f>+(J11*J14)+(I11*I14)+(H11*H14)+(G11*G14)</f>
-        <v>0</v>
-      </c>
+      <c r="J14" s="15">
+        <f>+(I11*I14)+(H11*H14)+(G11*G14)+(F11*F14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15">
-        <f>+(P11*P14)+(O11*O14)+(N11*N14)+(M11*M14)+(L11*L14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="21">
-        <f>+F14+K14+Q14</f>
+      <c r="P14" s="15">
+        <f>+(O11*O14)+(N11*N14)+(M11*M14)+(L11*L14)+(K11*K14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>+E14+J14+P14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <f>'Avaliação 1.º Período'!R14</f>
         <v>0</v>
       </c>
       <c r="T14" s="20">
-        <f>'Avaliação 1.º Período'!R14</f>
+        <f>'Avaliação 2.º Período'!Q14</f>
         <v>0</v>
       </c>
       <c r="U14" s="20">
-        <f>R14</f>
+        <f>Q14</f>
         <v>0</v>
       </c>
       <c r="V14" s="20">
-        <f>(+U14+T14)/2</f>
+        <f>(+U14+T14+S14)/3</f>
         <v>0</v>
       </c>
       <c r="W14" s="20">
@@ -2818,46 +4601,49 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15">
-        <f>+(E11*E15)+(D11*D15)+(C11*C15)</f>
-        <v>0</v>
-      </c>
+      <c r="E15" s="15">
+        <f>+(D11*D15)+(C11*C15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15">
-        <f>+(J11*J15)+(I11*I15)+(H11*H15)+(G11*G15)</f>
-        <v>0</v>
-      </c>
+      <c r="J15" s="15">
+        <f>+(I11*I15)+(H11*H15)+(G11*G15)+(F11*F15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15">
-        <f>+(P11*P15)+(O11*O15)+(N11*N15)+(M11*M15)+(L11*L15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="21">
-        <f>+F15+K15+Q15</f>
+      <c r="P15" s="15">
+        <f>+(O11*O15)+(N11*N15)+(M11*M15)+(L11*L15)+(K11*K15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="21">
+        <f>+E15+J15+P15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="20">
+        <f>'Avaliação 1.º Período'!R15</f>
         <v>0</v>
       </c>
       <c r="T15" s="20">
-        <f>'Avaliação 1.º Período'!R15</f>
+        <f>'Avaliação 2.º Período'!Q15</f>
         <v>0</v>
       </c>
       <c r="U15" s="20">
-        <f>R15</f>
+        <f>Q15</f>
         <v>0</v>
       </c>
       <c r="V15" s="20">
-        <f>(+U15+T15)/2</f>
+        <f>(+U15+T15+S15)/3</f>
         <v>0</v>
       </c>
       <c r="W15" s="20">
@@ -2870,46 +4656,49 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15">
-        <f>+(E11*E16)+(D11*D16)+(C11*C16)</f>
-        <v>0</v>
-      </c>
+      <c r="E16" s="15">
+        <f>+(D11*D16)+(C11*C16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15">
-        <f>+(J11*J16)+(I11*I16)+(H11*H16)+(G11*G16)</f>
-        <v>0</v>
-      </c>
+      <c r="J16" s="15">
+        <f>+(I11*I16)+(H11*H16)+(G11*G16)+(F11*F16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15">
-        <f>+(P11*P16)+(O11*O16)+(N11*N16)+(M11*M16)+(L11*L16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
-        <f>+F16+K16+Q16</f>
+      <c r="P16" s="15">
+        <f>+(O11*O16)+(N11*N16)+(M11*M16)+(L11*L16)+(K11*K16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21">
+        <f>+E16+J16+P16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <f>'Avaliação 1.º Período'!R16</f>
         <v>0</v>
       </c>
       <c r="T16" s="20">
-        <f>'Avaliação 1.º Período'!R16</f>
+        <f>'Avaliação 2.º Período'!Q16</f>
         <v>0</v>
       </c>
       <c r="U16" s="20">
-        <f>R16</f>
+        <f>Q16</f>
         <v>0</v>
       </c>
       <c r="V16" s="20">
-        <f>(+U16+T16)/2</f>
+        <f>(+U16+T16+S16)/3</f>
         <v>0</v>
       </c>
       <c r="W16" s="20">
@@ -2922,46 +4711,49 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15">
-        <f>+(E11*E17)+(D11*D17)+(C11*C17)</f>
-        <v>0</v>
-      </c>
+      <c r="E17" s="15">
+        <f>+(D11*D17)+(C11*C17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15">
-        <f>+(J11*J17)+(I11*I17)+(H11*H17)+(G11*G17)</f>
-        <v>0</v>
-      </c>
+      <c r="J17" s="15">
+        <f>+(I11*I17)+(H11*H17)+(G11*G17)+(F11*F17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15">
-        <f>+(P11*P17)+(O11*O17)+(N11*N17)+(M11*M17)+(L11*L17)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="21">
-        <f>+F17+K17+Q17</f>
+      <c r="P17" s="15">
+        <f>+(O11*O17)+(N11*N17)+(M11*M17)+(L11*L17)+(K11*K17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
+        <f>+E17+J17+P17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="20">
+        <f>'Avaliação 1.º Período'!R17</f>
         <v>0</v>
       </c>
       <c r="T17" s="20">
-        <f>'Avaliação 1.º Período'!R17</f>
+        <f>'Avaliação 2.º Período'!Q17</f>
         <v>0</v>
       </c>
       <c r="U17" s="20">
-        <f>R17</f>
+        <f>Q17</f>
         <v>0</v>
       </c>
       <c r="V17" s="20">
-        <f>(+U17+T17)/2</f>
+        <f>(+U17+T17+S17)/3</f>
         <v>0</v>
       </c>
       <c r="W17" s="20">
@@ -2974,46 +4766,49 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15">
-        <f>+(E11*E18)+(D11*D18)+(C11*C18)</f>
-        <v>0</v>
-      </c>
+      <c r="E18" s="15">
+        <f>+(D11*D18)+(C11*C18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15">
-        <f>+(J11*J18)+(I11*I18)+(H11*H18)+(G11*G18)</f>
-        <v>0</v>
-      </c>
+      <c r="J18" s="15">
+        <f>+(I11*I18)+(H11*H18)+(G11*G18)+(F11*F18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15">
-        <f>+(P11*P18)+(O11*O18)+(N11*N18)+(M11*M18)+(L11*L18)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="21">
-        <f>+F18+K18+Q18</f>
+      <c r="P18" s="15">
+        <f>+(O11*O18)+(N11*N18)+(M11*M18)+(L11*L18)+(K11*K18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="21">
+        <f>+E18+J18+P18</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <f>'Avaliação 1.º Período'!R18</f>
         <v>0</v>
       </c>
       <c r="T18" s="20">
-        <f>'Avaliação 1.º Período'!R18</f>
+        <f>'Avaliação 2.º Período'!Q18</f>
         <v>0</v>
       </c>
       <c r="U18" s="20">
-        <f>R18</f>
+        <f>Q18</f>
         <v>0</v>
       </c>
       <c r="V18" s="20">
-        <f>(+U18+T18)/2</f>
+        <f>(+U18+T18+S18)/3</f>
         <v>0</v>
       </c>
       <c r="W18" s="20">
@@ -3026,46 +4821,49 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15">
-        <f>+(E11*E19)+(D11*D19)+(C11*C19)</f>
-        <v>0</v>
-      </c>
+      <c r="E19" s="15">
+        <f>+(D11*D19)+(C11*C19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15">
-        <f>+(J11*J19)+(I11*I19)+(H11*H19)+(G11*G19)</f>
-        <v>0</v>
-      </c>
+      <c r="J19" s="15">
+        <f>+(I11*I19)+(H11*H19)+(G11*G19)+(F11*F19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15">
-        <f>+(P11*P19)+(O11*O19)+(N11*N19)+(M11*M19)+(L11*L19)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="21">
-        <f>+F19+K19+Q19</f>
+      <c r="P19" s="15">
+        <f>+(O11*O19)+(N11*N19)+(M11*M19)+(L11*L19)+(K11*K19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="21">
+        <f>+E19+J19+P19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
+        <f>'Avaliação 1.º Período'!R19</f>
         <v>0</v>
       </c>
       <c r="T19" s="20">
-        <f>'Avaliação 1.º Período'!R19</f>
+        <f>'Avaliação 2.º Período'!Q19</f>
         <v>0</v>
       </c>
       <c r="U19" s="20">
-        <f>R19</f>
+        <f>Q19</f>
         <v>0</v>
       </c>
       <c r="V19" s="20">
-        <f>(+U19+T19)/2</f>
+        <f>(+U19+T19+S19)/3</f>
         <v>0</v>
       </c>
       <c r="W19" s="20">
@@ -3078,46 +4876,49 @@
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15">
-        <f>+(E11*E20)+(D11*D20)+(C11*C20)</f>
-        <v>0</v>
-      </c>
+      <c r="E20" s="15">
+        <f>+(D11*D20)+(C11*C20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15">
-        <f>+(J11*J20)+(I11*I20)+(H11*H20)+(G11*G20)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="15">
+        <f>+(I11*I20)+(H11*H20)+(G11*G20)+(F11*F20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15">
-        <f>+(P11*P20)+(O11*O20)+(N11*N20)+(M11*M20)+(L11*L20)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <f>+F20+K20+Q20</f>
+      <c r="P20" s="15">
+        <f>+(O11*O20)+(N11*N20)+(M11*M20)+(L11*L20)+(K11*K20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21">
+        <f>+E20+J20+P20</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <f>'Avaliação 1.º Período'!R20</f>
         <v>0</v>
       </c>
       <c r="T20" s="20">
-        <f>'Avaliação 1.º Período'!R20</f>
+        <f>'Avaliação 2.º Período'!Q20</f>
         <v>0</v>
       </c>
       <c r="U20" s="20">
-        <f>R20</f>
+        <f>Q20</f>
         <v>0</v>
       </c>
       <c r="V20" s="20">
-        <f>(+U20+T20)/2</f>
+        <f>(+U20+T20+S20)/3</f>
         <v>0</v>
       </c>
       <c r="W20" s="20">
@@ -3130,46 +4931,49 @@
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15">
-        <f>+(E11*E21)+(D11*D21)+(C11*C21)</f>
-        <v>0</v>
-      </c>
+      <c r="E21" s="15">
+        <f>+(D11*D21)+(C11*C21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15">
-        <f>+(J11*J21)+(I11*I21)+(H11*H21)+(G11*G21)</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="15">
+        <f>+(I11*I21)+(H11*H21)+(G11*G21)+(F11*F21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15">
-        <f>+(P11*P21)+(O11*O21)+(N11*N21)+(M11*M21)+(L11*L21)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <f>+F21+K21+Q21</f>
+      <c r="P21" s="15">
+        <f>+(O11*O21)+(N11*N21)+(M11*M21)+(L11*L21)+(K11*K21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <f>+E21+J21+P21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <f>'Avaliação 1.º Período'!R21</f>
         <v>0</v>
       </c>
       <c r="T21" s="20">
-        <f>'Avaliação 1.º Período'!R21</f>
+        <f>'Avaliação 2.º Período'!Q21</f>
         <v>0</v>
       </c>
       <c r="U21" s="20">
-        <f>R21</f>
+        <f>Q21</f>
         <v>0</v>
       </c>
       <c r="V21" s="20">
-        <f>(+U21+T21)/2</f>
+        <f>(+U21+T21+S21)/3</f>
         <v>0</v>
       </c>
       <c r="W21" s="20">
@@ -3182,46 +4986,49 @@
         <v>11</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15">
-        <f>+(E11*E22)+(D11*D22)+(C11*C22)</f>
-        <v>0</v>
-      </c>
+      <c r="E22" s="15">
+        <f>+(D11*D22)+(C11*C22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15">
-        <f>+(J11*J22)+(I11*I22)+(H11*H22)+(G11*G22)</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="15">
+        <f>+(I11*I22)+(H11*H22)+(G11*G22)+(F11*F22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15">
-        <f>+(P11*P22)+(O11*O22)+(N11*N22)+(M11*M22)+(L11*L22)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="21">
-        <f>+F22+K22+Q22</f>
+      <c r="P22" s="15">
+        <f>+(O11*O22)+(N11*N22)+(M11*M22)+(L11*L22)+(K11*K22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21">
+        <f>+E22+J22+P22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
+        <f>'Avaliação 1.º Período'!R22</f>
         <v>0</v>
       </c>
       <c r="T22" s="20">
-        <f>'Avaliação 1.º Período'!R22</f>
+        <f>'Avaliação 2.º Período'!Q22</f>
         <v>0</v>
       </c>
       <c r="U22" s="20">
-        <f>R22</f>
+        <f>Q22</f>
         <v>0</v>
       </c>
       <c r="V22" s="20">
-        <f>(+U22+T22)/2</f>
+        <f>(+U22+T22+S22)/3</f>
         <v>0</v>
       </c>
       <c r="W22" s="20">
@@ -3234,46 +5041,49 @@
         <v>12</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15">
-        <f>+(E11*E23)+(D11*D23)+(C11*C23)</f>
-        <v>0</v>
-      </c>
+      <c r="E23" s="15">
+        <f>+(D11*D23)+(C11*C23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15">
-        <f>+(J11*J23)+(I11*I23)+(H11*H23)+(G11*G23)</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="15">
+        <f>+(I11*I23)+(H11*H23)+(G11*G23)+(F11*F23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15">
-        <f>+(P11*P23)+(O11*O23)+(N11*N23)+(M11*M23)+(L11*L23)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="21">
-        <f>+F23+K23+Q23</f>
+      <c r="P23" s="15">
+        <f>+(O11*O23)+(N11*N23)+(M11*M23)+(L11*L23)+(K11*K23)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <f>+E23+J23+P23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
+        <f>'Avaliação 1.º Período'!R23</f>
         <v>0</v>
       </c>
       <c r="T23" s="20">
-        <f>'Avaliação 1.º Período'!R23</f>
+        <f>'Avaliação 2.º Período'!Q23</f>
         <v>0</v>
       </c>
       <c r="U23" s="20">
-        <f>R23</f>
+        <f>Q23</f>
         <v>0</v>
       </c>
       <c r="V23" s="20">
-        <f>(+U23+T23)/2</f>
+        <f>(+U23+T23+S23)/3</f>
         <v>0</v>
       </c>
       <c r="W23" s="20">
@@ -3286,46 +5096,49 @@
         <v>13</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15">
-        <f>+(E11*E24)+(D11*D24)+(C11*C24)</f>
-        <v>0</v>
-      </c>
+      <c r="E24" s="15">
+        <f>+(D11*D24)+(C11*C24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15">
-        <f>+(J11*J24)+(I11*I24)+(H11*H24)+(G11*G24)</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="15">
+        <f>+(I11*I24)+(H11*H24)+(G11*G24)+(F11*F24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15">
-        <f>+(P11*P24)+(O11*O24)+(N11*N24)+(M11*M24)+(L11*L24)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="21">
-        <f>+F24+K24+Q24</f>
+      <c r="P24" s="15">
+        <f>+(O11*O24)+(N11*N24)+(M11*M24)+(L11*L24)+(K11*K24)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="21">
+        <f>+E24+J24+P24</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <f>'Avaliação 1.º Período'!R24</f>
         <v>0</v>
       </c>
       <c r="T24" s="20">
-        <f>'Avaliação 1.º Período'!R24</f>
+        <f>'Avaliação 2.º Período'!Q24</f>
         <v>0</v>
       </c>
       <c r="U24" s="20">
-        <f>R24</f>
+        <f>Q24</f>
         <v>0</v>
       </c>
       <c r="V24" s="20">
-        <f>(+U24+T24)/2</f>
+        <f>(+U24+T24+S24)/3</f>
         <v>0</v>
       </c>
       <c r="W24" s="20">
@@ -3338,46 +5151,49 @@
         <v>14</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15">
-        <f>+(E11*E25)+(D11*D25)+(C11*C25)</f>
-        <v>0</v>
-      </c>
+      <c r="E25" s="15">
+        <f>+(D11*D25)+(C11*C25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15">
-        <f>+(J11*J25)+(I11*I25)+(H11*H25)+(G11*G25)</f>
-        <v>0</v>
-      </c>
+      <c r="J25" s="15">
+        <f>+(I11*I25)+(H11*H25)+(G11*G25)+(F11*F25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15">
-        <f>+(P11*P25)+(O11*O25)+(N11*N25)+(M11*M25)+(L11*L25)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="21">
-        <f>+F25+K25+Q25</f>
+      <c r="P25" s="15">
+        <f>+(O11*O25)+(N11*N25)+(M11*M25)+(L11*L25)+(K11*K25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21">
+        <f>+E25+J25+P25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
+        <f>'Avaliação 1.º Período'!R25</f>
         <v>0</v>
       </c>
       <c r="T25" s="20">
-        <f>'Avaliação 1.º Período'!R25</f>
+        <f>'Avaliação 2.º Período'!Q25</f>
         <v>0</v>
       </c>
       <c r="U25" s="20">
-        <f>R25</f>
+        <f>Q25</f>
         <v>0</v>
       </c>
       <c r="V25" s="20">
-        <f>(+U25+T25)/2</f>
+        <f>(+U25+T25+S25)/3</f>
         <v>0</v>
       </c>
       <c r="W25" s="20">
@@ -3390,46 +5206,49 @@
         <v>15</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15">
-        <f>+(E11*E26)+(D11*D26)+(C11*C26)</f>
-        <v>0</v>
-      </c>
+      <c r="E26" s="15">
+        <f>+(D11*D26)+(C11*C26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15">
-        <f>+(J11*J26)+(I11*I26)+(H11*H26)+(G11*G26)</f>
-        <v>0</v>
-      </c>
+      <c r="J26" s="15">
+        <f>+(I11*I26)+(H11*H26)+(G11*G26)+(F11*F26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15">
-        <f>+(P11*P26)+(O11*O26)+(N11*N26)+(M11*M26)+(L11*L26)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="21">
-        <f>+F26+K26+Q26</f>
+      <c r="P26" s="15">
+        <f>+(O11*O26)+(N11*N26)+(M11*M26)+(L11*L26)+(K11*K26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="21">
+        <f>+E26+J26+P26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <f>'Avaliação 1.º Período'!R26</f>
         <v>0</v>
       </c>
       <c r="T26" s="20">
-        <f>'Avaliação 1.º Período'!R26</f>
+        <f>'Avaliação 2.º Período'!Q26</f>
         <v>0</v>
       </c>
       <c r="U26" s="20">
-        <f>R26</f>
+        <f>Q26</f>
         <v>0</v>
       </c>
       <c r="V26" s="20">
-        <f>(+U26+T26)/2</f>
+        <f>(+U26+T26+S26)/3</f>
         <v>0</v>
       </c>
       <c r="W26" s="20">
@@ -3442,46 +5261,49 @@
         <v>16</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15">
-        <f>+(E11*E27)+(D11*D27)+(C11*C27)</f>
-        <v>0</v>
-      </c>
+      <c r="E27" s="15">
+        <f>+(D11*D27)+(C11*C27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15">
-        <f>+(J11*J27)+(I11*I27)+(H11*H27)+(G11*G27)</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="15">
+        <f>+(I11*I27)+(H11*H27)+(G11*G27)+(F11*F27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15">
-        <f>+(P11*P27)+(O11*O27)+(N11*N27)+(M11*M27)+(L11*L27)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="21">
-        <f>+F27+K27+Q27</f>
+      <c r="P27" s="15">
+        <f>+(O11*O27)+(N11*N27)+(M11*M27)+(L11*L27)+(K11*K27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21">
+        <f>+E27+J27+P27</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
+        <f>'Avaliação 1.º Período'!R27</f>
         <v>0</v>
       </c>
       <c r="T27" s="20">
-        <f>'Avaliação 1.º Período'!R27</f>
+        <f>'Avaliação 2.º Período'!Q27</f>
         <v>0</v>
       </c>
       <c r="U27" s="20">
-        <f>R27</f>
+        <f>Q27</f>
         <v>0</v>
       </c>
       <c r="V27" s="20">
-        <f>(+U27+T27)/2</f>
+        <f>(+U27+T27+S27)/3</f>
         <v>0</v>
       </c>
       <c r="W27" s="20">
@@ -3494,46 +5316,49 @@
         <v>17</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15">
-        <f>+(E11*E28)+(D11*D28)+(C11*C28)</f>
-        <v>0</v>
-      </c>
+      <c r="E28" s="15">
+        <f>+(D11*D28)+(C11*C28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15">
-        <f>+(J11*J28)+(I11*I28)+(H11*H28)+(G11*G28)</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="15">
+        <f>+(I11*I28)+(H11*H28)+(G11*G28)+(F11*F28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15">
-        <f>+(P11*P28)+(O11*O28)+(N11*N28)+(M11*M28)+(L11*L28)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="21">
-        <f>+F28+K28+Q28</f>
+      <c r="P28" s="15">
+        <f>+(O11*O28)+(N11*N28)+(M11*M28)+(L11*L28)+(K11*K28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21">
+        <f>+E28+J28+P28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
+        <f>'Avaliação 1.º Período'!R28</f>
         <v>0</v>
       </c>
       <c r="T28" s="20">
-        <f>'Avaliação 1.º Período'!R28</f>
+        <f>'Avaliação 2.º Período'!Q28</f>
         <v>0</v>
       </c>
       <c r="U28" s="20">
-        <f>R28</f>
+        <f>Q28</f>
         <v>0</v>
       </c>
       <c r="V28" s="20">
-        <f>(+U28+T28)/2</f>
+        <f>(+U28+T28+S28)/3</f>
         <v>0</v>
       </c>
       <c r="W28" s="20">
@@ -3546,46 +5371,49 @@
         <v>18</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15">
-        <f>+(E11*E29)+(D11*D29)+(C11*C29)</f>
-        <v>0</v>
-      </c>
+      <c r="E29" s="15">
+        <f>+(D11*D29)+(C11*C29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15">
-        <f>+(J11*J29)+(I11*I29)+(H11*H29)+(G11*G29)</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="15">
+        <f>+(I11*I29)+(H11*H29)+(G11*G29)+(F11*F29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15">
-        <f>+(P11*P29)+(O11*O29)+(N11*N29)+(M11*M29)+(L11*L29)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="21">
-        <f>+F29+K29+Q29</f>
+      <c r="P29" s="15">
+        <f>+(O11*O29)+(N11*N29)+(M11*M29)+(L11*L29)+(K11*K29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21">
+        <f>+E29+J29+P29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="20">
+        <f>'Avaliação 1.º Período'!R29</f>
         <v>0</v>
       </c>
       <c r="T29" s="20">
-        <f>'Avaliação 1.º Período'!R29</f>
+        <f>'Avaliação 2.º Período'!Q29</f>
         <v>0</v>
       </c>
       <c r="U29" s="20">
-        <f>R29</f>
+        <f>Q29</f>
         <v>0</v>
       </c>
       <c r="V29" s="20">
-        <f>(+U29+T29)/2</f>
+        <f>(+U29+T29+S29)/3</f>
         <v>0</v>
       </c>
       <c r="W29" s="20">
@@ -3598,46 +5426,49 @@
         <v>19</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15">
-        <f>+(E11*E30)+(D11*D30)+(C11*C30)</f>
-        <v>0</v>
-      </c>
+      <c r="E30" s="15">
+        <f>+(D11*D30)+(C11*C30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15">
-        <f>+(J11*J30)+(I11*I30)+(H11*H30)+(G11*G30)</f>
-        <v>0</v>
-      </c>
+      <c r="J30" s="15">
+        <f>+(I11*I30)+(H11*H30)+(G11*G30)+(F11*F30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15">
-        <f>+(P11*P30)+(O11*O30)+(N11*N30)+(M11*M30)+(L11*L30)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="21">
-        <f>+F30+K30+Q30</f>
+      <c r="P30" s="15">
+        <f>+(O11*O30)+(N11*N30)+(M11*M30)+(L11*L30)+(K11*K30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="21">
+        <f>+E30+J30+P30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="20">
+        <f>'Avaliação 1.º Período'!R30</f>
         <v>0</v>
       </c>
       <c r="T30" s="20">
-        <f>'Avaliação 1.º Período'!R30</f>
+        <f>'Avaliação 2.º Período'!Q30</f>
         <v>0</v>
       </c>
       <c r="U30" s="20">
-        <f>R30</f>
+        <f>Q30</f>
         <v>0</v>
       </c>
       <c r="V30" s="20">
-        <f>(+U30+T30)/2</f>
+        <f>(+U30+T30+S30)/3</f>
         <v>0</v>
       </c>
       <c r="W30" s="20">
@@ -3650,46 +5481,49 @@
         <v>20</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15">
-        <f>+(E11*E31)+(D11*D31)+(C11*C31)</f>
-        <v>0</v>
-      </c>
+      <c r="E31" s="15">
+        <f>+(D11*D31)+(C11*C31)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15">
-        <f>+(J11*J31)+(I11*I31)+(H11*H31)+(G11*G31)</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="15">
+        <f>+(I11*I31)+(H11*H31)+(G11*G31)+(F11*F31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15">
-        <f>+(P11*P31)+(O11*O31)+(N11*N31)+(M11*M31)+(L11*L31)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="21">
-        <f>+F31+K31+Q31</f>
+      <c r="P31" s="15">
+        <f>+(O11*O31)+(N11*N31)+(M11*M31)+(L11*L31)+(K11*K31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21">
+        <f>+E31+J31+P31</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="20">
+        <f>'Avaliação 1.º Período'!R31</f>
         <v>0</v>
       </c>
       <c r="T31" s="20">
-        <f>'Avaliação 1.º Período'!R31</f>
+        <f>'Avaliação 2.º Período'!Q31</f>
         <v>0</v>
       </c>
       <c r="U31" s="20">
-        <f>R31</f>
+        <f>Q31</f>
         <v>0</v>
       </c>
       <c r="V31" s="20">
-        <f>(+U31+T31)/2</f>
+        <f>(+U31+T31+S31)/3</f>
         <v>0</v>
       </c>
       <c r="W31" s="20">
@@ -3702,46 +5536,49 @@
         <v>21</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15">
-        <f>+(E11*E32)+(D11*D32)+(C11*C32)</f>
-        <v>0</v>
-      </c>
+      <c r="E32" s="15">
+        <f>+(D11*D32)+(C11*C32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15">
-        <f>+(J11*J32)+(I11*I32)+(H11*H32)+(G11*G32)</f>
-        <v>0</v>
-      </c>
+      <c r="J32" s="15">
+        <f>+(I11*I32)+(H11*H32)+(G11*G32)+(F11*F32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15">
-        <f>+(P11*P32)+(O11*O32)+(N11*N32)+(M11*M32)+(L11*L32)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="21">
-        <f>+F32+K32+Q32</f>
+      <c r="P32" s="15">
+        <f>+(O11*O32)+(N11*N32)+(M11*M32)+(L11*L32)+(K11*K32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="21">
+        <f>+E32+J32+P32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="20">
+        <f>'Avaliação 1.º Período'!R32</f>
         <v>0</v>
       </c>
       <c r="T32" s="20">
-        <f>'Avaliação 1.º Período'!R32</f>
+        <f>'Avaliação 2.º Período'!Q32</f>
         <v>0</v>
       </c>
       <c r="U32" s="20">
-        <f>R32</f>
+        <f>Q32</f>
         <v>0</v>
       </c>
       <c r="V32" s="20">
-        <f>(+U32+T32)/2</f>
+        <f>(+U32+T32+S32)/3</f>
         <v>0</v>
       </c>
       <c r="W32" s="20">
@@ -3754,46 +5591,49 @@
         <v>22</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15">
-        <f>+(E11*E33)+(D11*D33)+(C11*C33)</f>
-        <v>0</v>
-      </c>
+      <c r="E33" s="15">
+        <f>+(D11*D33)+(C11*C33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15">
-        <f>+(J11*J33)+(I11*I33)+(H11*H33)+(G11*G33)</f>
-        <v>0</v>
-      </c>
+      <c r="J33" s="15">
+        <f>+(I11*I33)+(H11*H33)+(G11*G33)+(F11*F33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15">
-        <f>+(P11*P33)+(O11*O33)+(N11*N33)+(M11*M33)+(L11*L33)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="21">
-        <f>+F33+K33+Q33</f>
+      <c r="P33" s="15">
+        <f>+(O11*O33)+(N11*N33)+(M11*M33)+(L11*L33)+(K11*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="21">
+        <f>+E33+J33+P33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
+        <f>'Avaliação 1.º Período'!R33</f>
         <v>0</v>
       </c>
       <c r="T33" s="20">
-        <f>'Avaliação 1.º Período'!R33</f>
+        <f>'Avaliação 2.º Período'!Q33</f>
         <v>0</v>
       </c>
       <c r="U33" s="20">
-        <f>R33</f>
+        <f>Q33</f>
         <v>0</v>
       </c>
       <c r="V33" s="20">
-        <f>(+U33+T33)/2</f>
+        <f>(+U33+T33+S33)/3</f>
         <v>0</v>
       </c>
       <c r="W33" s="20">
@@ -3806,46 +5646,49 @@
         <v>23</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15">
-        <f>+(E11*E34)+(D11*D34)+(C11*C34)</f>
-        <v>0</v>
-      </c>
+      <c r="E34" s="15">
+        <f>+(D11*D34)+(C11*C34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15">
-        <f>+(J11*J34)+(I11*I34)+(H11*H34)+(G11*G34)</f>
-        <v>0</v>
-      </c>
+      <c r="J34" s="15">
+        <f>+(I11*I34)+(H11*H34)+(G11*G34)+(F11*F34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15">
-        <f>+(P11*P34)+(O11*O34)+(N11*N34)+(M11*M34)+(L11*L34)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="21">
-        <f>+F34+K34+Q34</f>
+      <c r="P34" s="15">
+        <f>+(O11*O34)+(N11*N34)+(M11*M34)+(L11*L34)+(K11*K34)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="21">
+        <f>+E34+J34+P34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="20">
+        <f>'Avaliação 1.º Período'!R34</f>
         <v>0</v>
       </c>
       <c r="T34" s="20">
-        <f>'Avaliação 1.º Período'!R34</f>
+        <f>'Avaliação 2.º Período'!Q34</f>
         <v>0</v>
       </c>
       <c r="U34" s="20">
-        <f>R34</f>
+        <f>Q34</f>
         <v>0</v>
       </c>
       <c r="V34" s="20">
-        <f>(+U34+T34)/2</f>
+        <f>(+U34+T34+S34)/3</f>
         <v>0</v>
       </c>
       <c r="W34" s="20">
@@ -3858,46 +5701,49 @@
         <v>24</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15">
-        <f>+(E11*E35)+(D11*D35)+(C11*C35)</f>
-        <v>0</v>
-      </c>
+      <c r="E35" s="15">
+        <f>+(D11*D35)+(C11*C35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15">
-        <f>+(J11*J35)+(I11*I35)+(H11*H35)+(G11*G35)</f>
-        <v>0</v>
-      </c>
+      <c r="J35" s="15">
+        <f>+(I11*I35)+(H11*H35)+(G11*G35)+(F11*F35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15">
-        <f>+(P11*P35)+(O11*O35)+(N11*N35)+(M11*M35)+(L11*L35)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="21">
-        <f>+F35+K35+Q35</f>
+      <c r="P35" s="15">
+        <f>+(O11*O35)+(N11*N35)+(M11*M35)+(L11*L35)+(K11*K35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="21">
+        <f>+E35+J35+P35</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <f>'Avaliação 1.º Período'!R35</f>
         <v>0</v>
       </c>
       <c r="T35" s="20">
-        <f>'Avaliação 1.º Período'!R35</f>
+        <f>'Avaliação 2.º Período'!Q35</f>
         <v>0</v>
       </c>
       <c r="U35" s="20">
-        <f>R35</f>
+        <f>Q35</f>
         <v>0</v>
       </c>
       <c r="V35" s="20">
-        <f>(+U35+T35)/2</f>
+        <f>(+U35+T35+S35)/3</f>
         <v>0</v>
       </c>
       <c r="W35" s="20">
@@ -3910,46 +5756,49 @@
         <v>25</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15">
-        <f>+(E11*E36)+(D11*D36)+(C11*C36)</f>
-        <v>0</v>
-      </c>
+      <c r="E36" s="15">
+        <f>+(D11*D36)+(C11*C36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15">
-        <f>+(J11*J36)+(I11*I36)+(H11*H36)+(G11*G36)</f>
-        <v>0</v>
-      </c>
+      <c r="J36" s="15">
+        <f>+(I11*I36)+(H11*H36)+(G11*G36)+(F11*F36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15">
-        <f>+(P11*P36)+(O11*O36)+(N11*N36)+(M11*M36)+(L11*L36)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="21">
-        <f>+F36+K36+Q36</f>
+      <c r="P36" s="15">
+        <f>+(O11*O36)+(N11*N36)+(M11*M36)+(L11*L36)+(K11*K36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21">
+        <f>+E36+J36+P36</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f>'Avaliação 1.º Período'!R36</f>
         <v>0</v>
       </c>
       <c r="T36" s="20">
-        <f>'Avaliação 1.º Período'!R36</f>
+        <f>'Avaliação 2.º Período'!Q36</f>
         <v>0</v>
       </c>
       <c r="U36" s="20">
-        <f>R36</f>
+        <f>Q36</f>
         <v>0</v>
       </c>
       <c r="V36" s="20">
-        <f>(+U36+T36)/2</f>
+        <f>(+U36+T36+S36)/3</f>
         <v>0</v>
       </c>
       <c r="W36" s="20">
@@ -3962,46 +5811,49 @@
         <v>26</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15">
-        <f>+(E11*E37)+(D11*D37)+(C11*C37)</f>
-        <v>0</v>
-      </c>
+      <c r="E37" s="15">
+        <f>+(D11*D37)+(C11*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15">
-        <f>+(J11*J37)+(I11*I37)+(H11*H37)+(G11*G37)</f>
-        <v>0</v>
-      </c>
+      <c r="J37" s="15">
+        <f>+(I11*I37)+(H11*H37)+(G11*G37)+(F11*F37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15">
-        <f>+(P11*P37)+(O11*O37)+(N11*N37)+(M11*M37)+(L11*L37)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="21">
-        <f>+F37+K37+Q37</f>
+      <c r="P37" s="15">
+        <f>+(O11*O37)+(N11*N37)+(M11*M37)+(L11*L37)+(K11*K37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21">
+        <f>+E37+J37+P37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="20">
+        <f>'Avaliação 1.º Período'!R37</f>
         <v>0</v>
       </c>
       <c r="T37" s="20">
-        <f>'Avaliação 1.º Período'!R37</f>
+        <f>'Avaliação 2.º Período'!Q37</f>
         <v>0</v>
       </c>
       <c r="U37" s="20">
-        <f>R37</f>
+        <f>Q37</f>
         <v>0</v>
       </c>
       <c r="V37" s="20">
-        <f>(+U37+T37)/2</f>
+        <f>(+U37+T37+S37)/3</f>
         <v>0</v>
       </c>
       <c r="W37" s="20">
@@ -4014,46 +5866,49 @@
         <v>27</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15">
-        <f>+(E11*E38)+(D11*D38)+(C11*C38)</f>
-        <v>0</v>
-      </c>
+      <c r="E38" s="15">
+        <f>+(D11*D38)+(C11*C38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15">
-        <f>+(J11*J38)+(I11*I38)+(H11*H38)+(G11*G38)</f>
-        <v>0</v>
-      </c>
+      <c r="J38" s="15">
+        <f>+(I11*I38)+(H11*H38)+(G11*G38)+(F11*F38)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15">
-        <f>+(P11*P38)+(O11*O38)+(N11*N38)+(M11*M38)+(L11*L38)</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="21">
-        <f>+F38+K38+Q38</f>
+      <c r="P38" s="15">
+        <f>+(O11*O38)+(N11*N38)+(M11*M38)+(L11*L38)+(K11*K38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
+        <f>+E38+J38+P38</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="20">
+        <f>'Avaliação 1.º Período'!R38</f>
         <v>0</v>
       </c>
       <c r="T38" s="20">
-        <f>'Avaliação 1.º Período'!R38</f>
+        <f>'Avaliação 2.º Período'!Q38</f>
         <v>0</v>
       </c>
       <c r="U38" s="20">
-        <f>R38</f>
+        <f>Q38</f>
         <v>0</v>
       </c>
       <c r="V38" s="20">
-        <f>(+U38+T38)/2</f>
+        <f>(+U38+T38+S38)/3</f>
         <v>0</v>
       </c>
       <c r="W38" s="20">
@@ -4066,46 +5921,49 @@
         <v>28</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15">
-        <f>+(E11*E39)+(D11*D39)+(C11*C39)</f>
-        <v>0</v>
-      </c>
+      <c r="E39" s="15">
+        <f>+(D11*D39)+(C11*C39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15">
-        <f>+(J11*J39)+(I11*I39)+(H11*H39)+(G11*G39)</f>
-        <v>0</v>
-      </c>
+      <c r="J39" s="15">
+        <f>+(I11*I39)+(H11*H39)+(G11*G39)+(F11*F39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15">
-        <f>+(P11*P39)+(O11*O39)+(N11*N39)+(M11*M39)+(L11*L39)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="21">
-        <f>+F39+K39+Q39</f>
+      <c r="P39" s="15">
+        <f>+(O11*O39)+(N11*N39)+(M11*M39)+(L11*L39)+(K11*K39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="21">
+        <f>+E39+J39+P39</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="20">
+        <f>'Avaliação 1.º Período'!R39</f>
         <v>0</v>
       </c>
       <c r="T39" s="20">
-        <f>'Avaliação 1.º Período'!R39</f>
+        <f>'Avaliação 2.º Período'!Q39</f>
         <v>0</v>
       </c>
       <c r="U39" s="20">
-        <f>R39</f>
+        <f>Q39</f>
         <v>0</v>
       </c>
       <c r="V39" s="20">
-        <f>(+U39+T39)/2</f>
+        <f>(+U39+T39+S39)/3</f>
         <v>0</v>
       </c>
       <c r="W39" s="20">
@@ -4113,116 +5971,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="9">
-        <v>29</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15">
-        <f>+(E11*E40)+(D11*D40)+(C11*C40)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15">
-        <f>+(J11*J40)+(I11*I40)+(H11*H40)+(G11*G40)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15">
-        <f>+(P11*P40)+(O11*O40)+(N11*N40)+(M11*M40)+(L11*L40)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="21">
-        <f>+F40+K40+Q40</f>
-        <v>0</v>
-      </c>
-      <c r="T40" s="20">
-        <f>'Avaliação 1.º Período'!R40</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="20">
-        <f>R40</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="20">
-        <f>(+U40+T40)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="20">
-        <f>IF(V40=0,"",LOOKUP(V40,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="9">
-        <v>30</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15">
-        <f>+(E11*E41)+(D11*D41)+(C11*C41)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15">
-        <f>+(J11*J41)+(I11*I41)+(H11*H41)+(G11*G41)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15">
-        <f>+(P11*P41)+(O11*O41)+(N11*N41)+(M11*M41)+(L11*L41)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="21">
-        <f>+F41+K41+Q41</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="20">
-        <f>'Avaliação 1.º Período'!R41</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="20">
-        <f>R41</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="20">
-        <f>(+U41+T41)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="20">
-        <f>IF(V41=0,"",LOOKUP(V41,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:W10"/>
@@ -4234,2086 +5989,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X9" s="17"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="8">
-        <f>SUM(C11:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="K11" s="8">
-        <f>SUM(G11:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="Q11" s="8">
-        <f>SUM(L11:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="18">
-        <f>+F11+K11+Q11</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="9">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15">
-        <f>+(E11*E12)+(D11*D12)+(C11*C12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15">
-        <f>+(J11*J12)+(I11*I12)+(H11*H12)+(G11*G12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15">
-        <f>+(P11*P12)+(O11*O12)+(N11*N12)+(M11*M12)+(L11*L12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="21">
-        <f>+F12+K12+Q12</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="20">
-        <f>'Avaliação 1.º Período'!R12</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="20">
-        <f>'Avaliação 2.º Período'!R12</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="20">
-        <f>R12</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="20">
-        <f>(+V12+U12+T12)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="20">
-        <f>IF(W12=0,"",LOOKUP(W12,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="9">
-        <v>2</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15">
-        <f>+(E11*E13)+(D11*D13)+(C11*C13)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15">
-        <f>+(J11*J13)+(I11*I13)+(H11*H13)+(G11*G13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15">
-        <f>+(P11*P13)+(O11*O13)+(N11*N13)+(M11*M13)+(L11*L13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <f>+F13+K13+Q13</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="20">
-        <f>'Avaliação 1.º Período'!R13</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="20">
-        <f>'Avaliação 2.º Período'!R13</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="20">
-        <f>R13</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="20">
-        <f>(+V13+U13+T13)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="20">
-        <f>IF(W13=0,"",LOOKUP(W13,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="9">
-        <v>3</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15">
-        <f>+(E11*E14)+(D11*D14)+(C11*C14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15">
-        <f>+(J11*J14)+(I11*I14)+(H11*H14)+(G11*G14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15">
-        <f>+(P11*P14)+(O11*O14)+(N11*N14)+(M11*M14)+(L11*L14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="21">
-        <f>+F14+K14+Q14</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="20">
-        <f>'Avaliação 1.º Período'!R14</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="20">
-        <f>'Avaliação 2.º Período'!R14</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="20">
-        <f>R14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="20">
-        <f>(+V14+U14+T14)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="20">
-        <f>IF(W14=0,"",LOOKUP(W14,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="9">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15">
-        <f>+(E11*E15)+(D11*D15)+(C11*C15)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15">
-        <f>+(J11*J15)+(I11*I15)+(H11*H15)+(G11*G15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15">
-        <f>+(P11*P15)+(O11*O15)+(N11*N15)+(M11*M15)+(L11*L15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="21">
-        <f>+F15+K15+Q15</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="20">
-        <f>'Avaliação 1.º Período'!R15</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="20">
-        <f>'Avaliação 2.º Período'!R15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="20">
-        <f>R15</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="20">
-        <f>(+V15+U15+T15)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="20">
-        <f>IF(W15=0,"",LOOKUP(W15,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="9">
-        <v>5</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15">
-        <f>+(E11*E16)+(D11*D16)+(C11*C16)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15">
-        <f>+(J11*J16)+(I11*I16)+(H11*H16)+(G11*G16)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15">
-        <f>+(P11*P16)+(O11*O16)+(N11*N16)+(M11*M16)+(L11*L16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
-        <f>+F16+K16+Q16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="20">
-        <f>'Avaliação 1.º Período'!R16</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="20">
-        <f>'Avaliação 2.º Período'!R16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="20">
-        <f>R16</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="20">
-        <f>(+V16+U16+T16)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="20">
-        <f>IF(W16=0,"",LOOKUP(W16,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="9">
-        <v>6</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15">
-        <f>+(E11*E17)+(D11*D17)+(C11*C17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15">
-        <f>+(J11*J17)+(I11*I17)+(H11*H17)+(G11*G17)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15">
-        <f>+(P11*P17)+(O11*O17)+(N11*N17)+(M11*M17)+(L11*L17)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="21">
-        <f>+F17+K17+Q17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="20">
-        <f>'Avaliação 1.º Período'!R17</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="20">
-        <f>'Avaliação 2.º Período'!R17</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="20">
-        <f>R17</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="20">
-        <f>(+V17+U17+T17)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="20">
-        <f>IF(W17=0,"",LOOKUP(W17,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="9">
-        <v>7</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15">
-        <f>+(E11*E18)+(D11*D18)+(C11*C18)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15">
-        <f>+(J11*J18)+(I11*I18)+(H11*H18)+(G11*G18)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15">
-        <f>+(P11*P18)+(O11*O18)+(N11*N18)+(M11*M18)+(L11*L18)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="21">
-        <f>+F18+K18+Q18</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="20">
-        <f>'Avaliação 1.º Período'!R18</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="20">
-        <f>'Avaliação 2.º Período'!R18</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="20">
-        <f>R18</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="20">
-        <f>(+V18+U18+T18)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="20">
-        <f>IF(W18=0,"",LOOKUP(W18,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="9">
-        <v>8</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15">
-        <f>+(E11*E19)+(D11*D19)+(C11*C19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15">
-        <f>+(J11*J19)+(I11*I19)+(H11*H19)+(G11*G19)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15">
-        <f>+(P11*P19)+(O11*O19)+(N11*N19)+(M11*M19)+(L11*L19)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="21">
-        <f>+F19+K19+Q19</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="20">
-        <f>'Avaliação 1.º Período'!R19</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="20">
-        <f>'Avaliação 2.º Período'!R19</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="20">
-        <f>R19</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="20">
-        <f>(+V19+U19+T19)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="20">
-        <f>IF(W19=0,"",LOOKUP(W19,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="9">
-        <v>9</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15">
-        <f>+(E11*E20)+(D11*D20)+(C11*C20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15">
-        <f>+(J11*J20)+(I11*I20)+(H11*H20)+(G11*G20)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15">
-        <f>+(P11*P20)+(O11*O20)+(N11*N20)+(M11*M20)+(L11*L20)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <f>+F20+K20+Q20</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="20">
-        <f>'Avaliação 1.º Período'!R20</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="20">
-        <f>'Avaliação 2.º Período'!R20</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="20">
-        <f>R20</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="20">
-        <f>(+V20+U20+T20)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="20">
-        <f>IF(W20=0,"",LOOKUP(W20,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="9">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15">
-        <f>+(E11*E21)+(D11*D21)+(C11*C21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15">
-        <f>+(J11*J21)+(I11*I21)+(H11*H21)+(G11*G21)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15">
-        <f>+(P11*P21)+(O11*O21)+(N11*N21)+(M11*M21)+(L11*L21)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <f>+F21+K21+Q21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="20">
-        <f>'Avaliação 1.º Período'!R21</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="20">
-        <f>'Avaliação 2.º Período'!R21</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="20">
-        <f>R21</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="20">
-        <f>(+V21+U21+T21)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="20">
-        <f>IF(W21=0,"",LOOKUP(W21,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="9">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15">
-        <f>+(E11*E22)+(D11*D22)+(C11*C22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15">
-        <f>+(J11*J22)+(I11*I22)+(H11*H22)+(G11*G22)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15">
-        <f>+(P11*P22)+(O11*O22)+(N11*N22)+(M11*M22)+(L11*L22)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="21">
-        <f>+F22+K22+Q22</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="20">
-        <f>'Avaliação 1.º Período'!R22</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="20">
-        <f>'Avaliação 2.º Período'!R22</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="20">
-        <f>R22</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="20">
-        <f>(+V22+U22+T22)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="20">
-        <f>IF(W22=0,"",LOOKUP(W22,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="9">
-        <v>12</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15">
-        <f>+(E11*E23)+(D11*D23)+(C11*C23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15">
-        <f>+(J11*J23)+(I11*I23)+(H11*H23)+(G11*G23)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15">
-        <f>+(P11*P23)+(O11*O23)+(N11*N23)+(M11*M23)+(L11*L23)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="21">
-        <f>+F23+K23+Q23</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="20">
-        <f>'Avaliação 1.º Período'!R23</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="20">
-        <f>'Avaliação 2.º Período'!R23</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="20">
-        <f>R23</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="20">
-        <f>(+V23+U23+T23)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="20">
-        <f>IF(W23=0,"",LOOKUP(W23,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="9">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15">
-        <f>+(E11*E24)+(D11*D24)+(C11*C24)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15">
-        <f>+(J11*J24)+(I11*I24)+(H11*H24)+(G11*G24)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15">
-        <f>+(P11*P24)+(O11*O24)+(N11*N24)+(M11*M24)+(L11*L24)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="21">
-        <f>+F24+K24+Q24</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="20">
-        <f>'Avaliação 1.º Período'!R24</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="20">
-        <f>'Avaliação 2.º Período'!R24</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="20">
-        <f>R24</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="20">
-        <f>(+V24+U24+T24)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="20">
-        <f>IF(W24=0,"",LOOKUP(W24,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="9">
-        <v>14</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15">
-        <f>+(E11*E25)+(D11*D25)+(C11*C25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15">
-        <f>+(J11*J25)+(I11*I25)+(H11*H25)+(G11*G25)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15">
-        <f>+(P11*P25)+(O11*O25)+(N11*N25)+(M11*M25)+(L11*L25)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="21">
-        <f>+F25+K25+Q25</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="20">
-        <f>'Avaliação 1.º Período'!R25</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="20">
-        <f>'Avaliação 2.º Período'!R25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="20">
-        <f>R25</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="20">
-        <f>(+V25+U25+T25)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X25" s="20">
-        <f>IF(W25=0,"",LOOKUP(W25,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="9">
-        <v>15</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15">
-        <f>+(E11*E26)+(D11*D26)+(C11*C26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15">
-        <f>+(J11*J26)+(I11*I26)+(H11*H26)+(G11*G26)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15">
-        <f>+(P11*P26)+(O11*O26)+(N11*N26)+(M11*M26)+(L11*L26)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="21">
-        <f>+F26+K26+Q26</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="20">
-        <f>'Avaliação 1.º Período'!R26</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="20">
-        <f>'Avaliação 2.º Período'!R26</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="20">
-        <f>R26</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="20">
-        <f>(+V26+U26+T26)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="20">
-        <f>IF(W26=0,"",LOOKUP(W26,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="9">
-        <v>16</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15">
-        <f>+(E11*E27)+(D11*D27)+(C11*C27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15">
-        <f>+(J11*J27)+(I11*I27)+(H11*H27)+(G11*G27)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15">
-        <f>+(P11*P27)+(O11*O27)+(N11*N27)+(M11*M27)+(L11*L27)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="21">
-        <f>+F27+K27+Q27</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="20">
-        <f>'Avaliação 1.º Período'!R27</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="20">
-        <f>'Avaliação 2.º Período'!R27</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="20">
-        <f>R27</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="20">
-        <f>(+V27+U27+T27)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="20">
-        <f>IF(W27=0,"",LOOKUP(W27,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="9">
-        <v>17</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15">
-        <f>+(E11*E28)+(D11*D28)+(C11*C28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15">
-        <f>+(J11*J28)+(I11*I28)+(H11*H28)+(G11*G28)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15">
-        <f>+(P11*P28)+(O11*O28)+(N11*N28)+(M11*M28)+(L11*L28)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="21">
-        <f>+F28+K28+Q28</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="20">
-        <f>'Avaliação 1.º Período'!R28</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="20">
-        <f>'Avaliação 2.º Período'!R28</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="20">
-        <f>R28</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="20">
-        <f>(+V28+U28+T28)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="20">
-        <f>IF(W28=0,"",LOOKUP(W28,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="9">
-        <v>18</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15">
-        <f>+(E11*E29)+(D11*D29)+(C11*C29)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15">
-        <f>+(J11*J29)+(I11*I29)+(H11*H29)+(G11*G29)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15">
-        <f>+(P11*P29)+(O11*O29)+(N11*N29)+(M11*M29)+(L11*L29)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="21">
-        <f>+F29+K29+Q29</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="20">
-        <f>'Avaliação 1.º Período'!R29</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="20">
-        <f>'Avaliação 2.º Período'!R29</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="20">
-        <f>R29</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="20">
-        <f>(+V29+U29+T29)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="20">
-        <f>IF(W29=0,"",LOOKUP(W29,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="9">
-        <v>19</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15">
-        <f>+(E11*E30)+(D11*D30)+(C11*C30)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15">
-        <f>+(J11*J30)+(I11*I30)+(H11*H30)+(G11*G30)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15">
-        <f>+(P11*P30)+(O11*O30)+(N11*N30)+(M11*M30)+(L11*L30)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="21">
-        <f>+F30+K30+Q30</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="20">
-        <f>'Avaliação 1.º Período'!R30</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="20">
-        <f>'Avaliação 2.º Período'!R30</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="20">
-        <f>R30</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="20">
-        <f>(+V30+U30+T30)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="20">
-        <f>IF(W30=0,"",LOOKUP(W30,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="9">
-        <v>20</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15">
-        <f>+(E11*E31)+(D11*D31)+(C11*C31)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15">
-        <f>+(J11*J31)+(I11*I31)+(H11*H31)+(G11*G31)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15">
-        <f>+(P11*P31)+(O11*O31)+(N11*N31)+(M11*M31)+(L11*L31)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="21">
-        <f>+F31+K31+Q31</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="20">
-        <f>'Avaliação 1.º Período'!R31</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="20">
-        <f>'Avaliação 2.º Período'!R31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="20">
-        <f>R31</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="20">
-        <f>(+V31+U31+T31)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="20">
-        <f>IF(W31=0,"",LOOKUP(W31,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="A32" s="9">
-        <v>21</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15">
-        <f>+(E11*E32)+(D11*D32)+(C11*C32)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15">
-        <f>+(J11*J32)+(I11*I32)+(H11*H32)+(G11*G32)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15">
-        <f>+(P11*P32)+(O11*O32)+(N11*N32)+(M11*M32)+(L11*L32)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="21">
-        <f>+F32+K32+Q32</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="20">
-        <f>'Avaliação 1.º Período'!R32</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="20">
-        <f>'Avaliação 2.º Período'!R32</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="20">
-        <f>R32</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="20">
-        <f>(+V32+U32+T32)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="20">
-        <f>IF(W32=0,"",LOOKUP(W32,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="A33" s="9">
-        <v>22</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15">
-        <f>+(E11*E33)+(D11*D33)+(C11*C33)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15">
-        <f>+(J11*J33)+(I11*I33)+(H11*H33)+(G11*G33)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15">
-        <f>+(P11*P33)+(O11*O33)+(N11*N33)+(M11*M33)+(L11*L33)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="21">
-        <f>+F33+K33+Q33</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="20">
-        <f>'Avaliação 1.º Período'!R33</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="20">
-        <f>'Avaliação 2.º Período'!R33</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="20">
-        <f>R33</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="20">
-        <f>(+V33+U33+T33)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="20">
-        <f>IF(W33=0,"",LOOKUP(W33,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="9">
-        <v>23</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15">
-        <f>+(E11*E34)+(D11*D34)+(C11*C34)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15">
-        <f>+(J11*J34)+(I11*I34)+(H11*H34)+(G11*G34)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15">
-        <f>+(P11*P34)+(O11*O34)+(N11*N34)+(M11*M34)+(L11*L34)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="21">
-        <f>+F34+K34+Q34</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="20">
-        <f>'Avaliação 1.º Período'!R34</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="20">
-        <f>'Avaliação 2.º Período'!R34</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="20">
-        <f>R34</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="20">
-        <f>(+V34+U34+T34)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="20">
-        <f>IF(W34=0,"",LOOKUP(W34,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="9">
-        <v>24</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15">
-        <f>+(E11*E35)+(D11*D35)+(C11*C35)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15">
-        <f>+(J11*J35)+(I11*I35)+(H11*H35)+(G11*G35)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15">
-        <f>+(P11*P35)+(O11*O35)+(N11*N35)+(M11*M35)+(L11*L35)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="21">
-        <f>+F35+K35+Q35</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="20">
-        <f>'Avaliação 1.º Período'!R35</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="20">
-        <f>'Avaliação 2.º Período'!R35</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="20">
-        <f>R35</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="20">
-        <f>(+V35+U35+T35)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="20">
-        <f>IF(W35=0,"",LOOKUP(W35,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="A36" s="9">
-        <v>25</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15">
-        <f>+(E11*E36)+(D11*D36)+(C11*C36)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15">
-        <f>+(J11*J36)+(I11*I36)+(H11*H36)+(G11*G36)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15">
-        <f>+(P11*P36)+(O11*O36)+(N11*N36)+(M11*M36)+(L11*L36)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="21">
-        <f>+F36+K36+Q36</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="20">
-        <f>'Avaliação 1.º Período'!R36</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="20">
-        <f>'Avaliação 2.º Período'!R36</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="20">
-        <f>R36</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="20">
-        <f>(+V36+U36+T36)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="20">
-        <f>IF(W36=0,"",LOOKUP(W36,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="9">
-        <v>26</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15">
-        <f>+(E11*E37)+(D11*D37)+(C11*C37)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15">
-        <f>+(J11*J37)+(I11*I37)+(H11*H37)+(G11*G37)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15">
-        <f>+(P11*P37)+(O11*O37)+(N11*N37)+(M11*M37)+(L11*L37)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="21">
-        <f>+F37+K37+Q37</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="20">
-        <f>'Avaliação 1.º Período'!R37</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="20">
-        <f>'Avaliação 2.º Período'!R37</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="20">
-        <f>R37</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="20">
-        <f>(+V37+U37+T37)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="20">
-        <f>IF(W37=0,"",LOOKUP(W37,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="9">
-        <v>27</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15">
-        <f>+(E11*E38)+(D11*D38)+(C11*C38)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15">
-        <f>+(J11*J38)+(I11*I38)+(H11*H38)+(G11*G38)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15">
-        <f>+(P11*P38)+(O11*O38)+(N11*N38)+(M11*M38)+(L11*L38)</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="21">
-        <f>+F38+K38+Q38</f>
-        <v>0</v>
-      </c>
-      <c r="T38" s="20">
-        <f>'Avaliação 1.º Período'!R38</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="20">
-        <f>'Avaliação 2.º Período'!R38</f>
-        <v>0</v>
-      </c>
-      <c r="V38" s="20">
-        <f>R38</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="20">
-        <f>(+V38+U38+T38)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X38" s="20">
-        <f>IF(W38=0,"",LOOKUP(W38,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="9">
-        <v>28</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15">
-        <f>+(E11*E39)+(D11*D39)+(C11*C39)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15">
-        <f>+(J11*J39)+(I11*I39)+(H11*H39)+(G11*G39)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15">
-        <f>+(P11*P39)+(O11*O39)+(N11*N39)+(M11*M39)+(L11*L39)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="21">
-        <f>+F39+K39+Q39</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="20">
-        <f>'Avaliação 1.º Período'!R39</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="20">
-        <f>'Avaliação 2.º Período'!R39</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="20">
-        <f>R39</f>
-        <v>0</v>
-      </c>
-      <c r="W39" s="20">
-        <f>(+V39+U39+T39)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="20">
-        <f>IF(W39=0,"",LOOKUP(W39,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="A40" s="9">
-        <v>29</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15">
-        <f>+(E11*E40)+(D11*D40)+(C11*C40)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15">
-        <f>+(J11*J40)+(I11*I40)+(H11*H40)+(G11*G40)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15">
-        <f>+(P11*P40)+(O11*O40)+(N11*N40)+(M11*M40)+(L11*L40)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="21">
-        <f>+F40+K40+Q40</f>
-        <v>0</v>
-      </c>
-      <c r="T40" s="20">
-        <f>'Avaliação 1.º Período'!R40</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="20">
-        <f>'Avaliação 2.º Período'!R40</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="20">
-        <f>R40</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="20">
-        <f>(+V40+U40+T40)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="20">
-        <f>IF(W40=0,"",LOOKUP(W40,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="9">
-        <v>30</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15">
-        <f>+(E11*E41)+(D11*D41)+(C11*C41)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15">
-        <f>+(J11*J41)+(I11*I41)+(H11*H41)+(G11*G41)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15">
-        <f>+(P11*P41)+(O11*O41)+(N11*N41)+(M11*M41)+(L11*L41)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="21">
-        <f>+F41+K41+Q41</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="20">
-        <f>'Avaliação 1.º Período'!R41</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="20">
-        <f>'Avaliação 2.º Período'!R41</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="20">
-        <f>R41</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="20">
-        <f>(+V41+U41+T41)/3</f>
-        <v>0</v>
-      </c>
-      <c r="X41" s="20">
-        <f>IF(W41=0,"",LOOKUP(W41,Notas!B3:B7,Notas!C3:C7))</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="A1:X2"/>
-    <mergeCell ref="A3:X4"/>
-    <mergeCell ref="A5:X6"/>
-    <mergeCell ref="A7:X8"/>
-    <mergeCell ref="B9:B10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>